--- a/Test2.xlsx
+++ b/Test2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanelhyi\NEH\09_Yanelhy Inzurriaga\Box 13 - Folder 08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/Documents/MetadataProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85F9D35-9F90-4713-B330-7B639B1EA0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACDD112-B006-F444-867B-71FFCD171518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30735" yWindow="7140" windowWidth="28800" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9660" yWindow="1880" windowWidth="28800" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GO_Technical metadata" sheetId="2" r:id="rId1"/>
@@ -2221,7 +2221,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2235,17 +2235,13 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2305,9 +2301,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2345,7 +2341,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2451,7 +2447,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2593,7 +2589,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2608,21 +2604,21 @@
       <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="31.5703125" customWidth="1"/>
+    <col min="10" max="10" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2654,7 +2650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>503</v>
       </c>
@@ -2686,7 +2682,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>504</v>
       </c>
@@ -2718,7 +2714,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>505</v>
       </c>
@@ -2750,7 +2746,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>506</v>
       </c>
@@ -2782,7 +2778,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>507</v>
       </c>
@@ -2814,7 +2810,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>508</v>
       </c>
@@ -2846,7 +2842,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>509</v>
       </c>
@@ -2878,7 +2874,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>510</v>
       </c>
@@ -2910,7 +2906,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>511</v>
       </c>
@@ -2942,7 +2938,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>512</v>
       </c>
@@ -2974,7 +2970,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>513</v>
       </c>
@@ -3006,7 +3002,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>514</v>
       </c>
@@ -3038,7 +3034,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>515</v>
       </c>
@@ -3070,7 +3066,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>516</v>
       </c>
@@ -3102,7 +3098,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>517</v>
       </c>
@@ -3134,7 +3130,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>518</v>
       </c>
@@ -3166,7 +3162,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>519</v>
       </c>
@@ -3198,7 +3194,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>520</v>
       </c>
@@ -3230,7 +3226,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>521</v>
       </c>
@@ -3262,7 +3258,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>522</v>
       </c>
@@ -3294,7 +3290,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>523</v>
       </c>
@@ -3326,7 +3322,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>524</v>
       </c>
@@ -3358,7 +3354,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>525</v>
       </c>
@@ -3390,7 +3386,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>526</v>
       </c>
@@ -3422,7 +3418,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>527</v>
       </c>
@@ -3454,7 +3450,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>528</v>
       </c>
@@ -3486,7 +3482,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>529</v>
       </c>
@@ -3518,7 +3514,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>530</v>
       </c>
@@ -3550,7 +3546,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>531</v>
       </c>
@@ -3582,7 +3578,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>532</v>
       </c>
@@ -3614,7 +3610,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>533</v>
       </c>
@@ -3646,7 +3642,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>534</v>
       </c>
@@ -3678,7 +3674,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>535</v>
       </c>
@@ -3710,7 +3706,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>536</v>
       </c>
@@ -3742,7 +3738,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>537</v>
       </c>
@@ -3774,7 +3770,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>538</v>
       </c>
@@ -3806,7 +3802,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>539</v>
       </c>
@@ -3838,7 +3834,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>540</v>
       </c>
@@ -3870,7 +3866,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>541</v>
       </c>
@@ -3902,7 +3898,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>542</v>
       </c>
@@ -3944,107 +3940,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CP20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Z1" sqref="Z1"/>
-      <selection pane="bottomLeft" activeCell="AZ13" sqref="AZ13"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="25.42578125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" customWidth="1"/>
-    <col min="25" max="25" width="19.85546875" customWidth="1"/>
-    <col min="26" max="26" width="16.140625" customWidth="1"/>
-    <col min="27" max="27" width="22.140625" customWidth="1"/>
-    <col min="28" max="28" width="16.28515625" customWidth="1"/>
-    <col min="29" max="29" width="18.7109375" customWidth="1"/>
-    <col min="30" max="30" width="17.28515625" customWidth="1"/>
-    <col min="31" max="31" width="18.42578125" customWidth="1"/>
-    <col min="32" max="32" width="19.85546875" customWidth="1"/>
-    <col min="33" max="33" width="26.5703125" customWidth="1"/>
-    <col min="34" max="34" width="22.5703125" customWidth="1"/>
-    <col min="35" max="35" width="23.85546875" customWidth="1"/>
-    <col min="36" max="36" width="23.28515625" customWidth="1"/>
-    <col min="37" max="37" width="24.5703125" customWidth="1"/>
-    <col min="38" max="38" width="23.28515625" customWidth="1"/>
-    <col min="39" max="39" width="27.28515625" customWidth="1"/>
-    <col min="40" max="40" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="30.5" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" customWidth="1"/>
+    <col min="13" max="13" width="25.5" customWidth="1"/>
+    <col min="14" max="14" width="22.5" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" customWidth="1"/>
+    <col min="21" max="21" width="11.5" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" customWidth="1"/>
+    <col min="25" max="25" width="19.83203125" customWidth="1"/>
+    <col min="26" max="26" width="16.1640625" customWidth="1"/>
+    <col min="27" max="27" width="22.1640625" customWidth="1"/>
+    <col min="28" max="28" width="16.33203125" customWidth="1"/>
+    <col min="29" max="29" width="18.6640625" customWidth="1"/>
+    <col min="30" max="30" width="17.33203125" customWidth="1"/>
+    <col min="31" max="31" width="18.5" customWidth="1"/>
+    <col min="32" max="32" width="19.83203125" customWidth="1"/>
+    <col min="33" max="33" width="26.5" customWidth="1"/>
+    <col min="34" max="34" width="22.5" customWidth="1"/>
+    <col min="35" max="35" width="23.83203125" customWidth="1"/>
+    <col min="36" max="36" width="23.33203125" customWidth="1"/>
+    <col min="37" max="37" width="24.5" customWidth="1"/>
+    <col min="38" max="38" width="23.33203125" customWidth="1"/>
+    <col min="39" max="39" width="27.33203125" customWidth="1"/>
+    <col min="40" max="40" width="26.33203125" customWidth="1"/>
     <col min="41" max="41" width="17" customWidth="1"/>
-    <col min="42" max="42" width="17.85546875" customWidth="1"/>
-    <col min="43" max="43" width="33.5703125" customWidth="1"/>
-    <col min="44" max="44" width="32.140625" customWidth="1"/>
-    <col min="45" max="45" width="35.140625" customWidth="1"/>
-    <col min="46" max="46" width="31.28515625" customWidth="1"/>
-    <col min="47" max="47" width="18.85546875" customWidth="1"/>
-    <col min="48" max="48" width="15.5703125" customWidth="1"/>
-    <col min="49" max="49" width="16.42578125" customWidth="1"/>
-    <col min="50" max="50" width="12.140625" customWidth="1"/>
-    <col min="51" max="51" width="16.5703125" customWidth="1"/>
-    <col min="52" max="52" width="13.42578125" customWidth="1"/>
-    <col min="53" max="53" width="22.7109375" customWidth="1"/>
-    <col min="54" max="54" width="19.7109375" customWidth="1"/>
-    <col min="55" max="55" width="16.140625" customWidth="1"/>
-    <col min="56" max="56" width="10.7109375" customWidth="1"/>
-    <col min="57" max="57" width="28.7109375" customWidth="1"/>
-    <col min="58" max="58" width="25.7109375" customWidth="1"/>
-    <col min="59" max="59" width="18.85546875" customWidth="1"/>
-    <col min="60" max="60" width="16.7109375" customWidth="1"/>
-    <col min="61" max="61" width="26.28515625" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="23.28515625" hidden="1" customWidth="1"/>
-    <col min="63" max="63" width="16.7109375" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="13.28515625" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="13.140625" hidden="1" customWidth="1"/>
-    <col min="66" max="66" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="67" max="67" width="18.42578125" customWidth="1"/>
-    <col min="68" max="68" width="16.5703125" customWidth="1"/>
-    <col min="69" max="69" width="15.85546875" hidden="1" customWidth="1"/>
-    <col min="70" max="70" width="13.28515625" hidden="1" customWidth="1"/>
-    <col min="71" max="71" width="15" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="17.7109375" customWidth="1"/>
-    <col min="74" max="74" width="14.28515625" customWidth="1"/>
+    <col min="42" max="42" width="17.83203125" customWidth="1"/>
+    <col min="43" max="43" width="33.5" customWidth="1"/>
+    <col min="44" max="44" width="32.1640625" customWidth="1"/>
+    <col min="45" max="45" width="35.1640625" customWidth="1"/>
+    <col min="46" max="46" width="31.33203125" customWidth="1"/>
+    <col min="47" max="47" width="18.83203125" customWidth="1"/>
+    <col min="48" max="48" width="15.5" customWidth="1"/>
+    <col min="49" max="49" width="16.5" customWidth="1"/>
+    <col min="50" max="50" width="12.1640625" customWidth="1"/>
+    <col min="51" max="51" width="16.5" customWidth="1"/>
+    <col min="52" max="52" width="13.5" customWidth="1"/>
+    <col min="53" max="53" width="22.6640625" customWidth="1"/>
+    <col min="54" max="54" width="19.6640625" customWidth="1"/>
+    <col min="55" max="55" width="16.1640625" customWidth="1"/>
+    <col min="56" max="56" width="10.6640625" customWidth="1"/>
+    <col min="57" max="57" width="28.6640625" customWidth="1"/>
+    <col min="58" max="58" width="25.6640625" customWidth="1"/>
+    <col min="59" max="59" width="18.83203125" customWidth="1"/>
+    <col min="60" max="60" width="16.6640625" customWidth="1"/>
+    <col min="61" max="61" width="26.33203125" customWidth="1"/>
+    <col min="62" max="62" width="23.33203125" customWidth="1"/>
+    <col min="63" max="63" width="16.6640625" customWidth="1"/>
+    <col min="64" max="64" width="13.33203125" customWidth="1"/>
+    <col min="65" max="65" width="13.1640625" customWidth="1"/>
+    <col min="66" max="66" width="9.1640625" customWidth="1"/>
+    <col min="67" max="67" width="18.5" customWidth="1"/>
+    <col min="68" max="68" width="16.5" customWidth="1"/>
+    <col min="69" max="69" width="15.83203125" customWidth="1"/>
+    <col min="70" max="70" width="13.33203125" customWidth="1"/>
+    <col min="71" max="71" width="15" customWidth="1"/>
+    <col min="72" max="72" width="10.1640625" customWidth="1"/>
+    <col min="73" max="73" width="17.6640625" customWidth="1"/>
+    <col min="74" max="74" width="14.33203125" customWidth="1"/>
     <col min="75" max="75" width="17" customWidth="1"/>
-    <col min="76" max="76" width="19.85546875" customWidth="1"/>
-    <col min="77" max="77" width="21.7109375" hidden="1" customWidth="1"/>
-    <col min="78" max="78" width="17.140625" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="27.85546875" customWidth="1"/>
-    <col min="80" max="80" width="28.140625" customWidth="1"/>
-    <col min="81" max="81" width="24.7109375" hidden="1" customWidth="1"/>
-    <col min="82" max="82" width="20.5703125" hidden="1" customWidth="1"/>
-    <col min="83" max="83" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="84" max="84" width="20.42578125" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="20.7109375" hidden="1" customWidth="1"/>
-    <col min="86" max="86" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="87" max="87" width="12.140625" hidden="1" customWidth="1"/>
-    <col min="88" max="88" width="10.7109375" hidden="1" customWidth="1"/>
-    <col min="89" max="89" width="8.85546875" hidden="1" customWidth="1"/>
-    <col min="90" max="90" width="20" hidden="1" customWidth="1"/>
-    <col min="91" max="91" width="26.42578125" hidden="1" customWidth="1"/>
-    <col min="92" max="92" width="16.7109375" hidden="1" customWidth="1"/>
-    <col min="93" max="93" width="17" hidden="1" customWidth="1"/>
-    <col min="94" max="94" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="76" max="76" width="19.83203125" customWidth="1"/>
+    <col min="77" max="77" width="21.6640625" customWidth="1"/>
+    <col min="78" max="78" width="17.1640625" customWidth="1"/>
+    <col min="79" max="79" width="27.83203125" customWidth="1"/>
+    <col min="80" max="80" width="28.1640625" customWidth="1"/>
+    <col min="81" max="81" width="24.6640625" customWidth="1"/>
+    <col min="82" max="82" width="20.5" customWidth="1"/>
+    <col min="83" max="83" width="11.33203125" customWidth="1"/>
+    <col min="84" max="84" width="20.5" customWidth="1"/>
+    <col min="85" max="85" width="20.6640625" customWidth="1"/>
+    <col min="86" max="86" width="13.6640625" customWidth="1"/>
+    <col min="87" max="87" width="12.1640625" customWidth="1"/>
+    <col min="88" max="88" width="10.6640625" customWidth="1"/>
+    <col min="89" max="89" width="8.83203125" customWidth="1"/>
+    <col min="90" max="90" width="20" customWidth="1"/>
+    <col min="91" max="91" width="26.5" customWidth="1"/>
+    <col min="92" max="92" width="16.6640625" customWidth="1"/>
+    <col min="93" max="93" width="17" customWidth="1"/>
+    <col min="94" max="94" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:94" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -4328,7 +4324,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:94" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>484</v>
       </c>
@@ -4383,7 +4379,7 @@
       <c r="T2" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="U2" t="s">
         <v>368</v>
       </c>
       <c r="V2" t="s">
@@ -4570,7 +4566,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:94" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>485</v>
       </c>
@@ -4759,7 +4755,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:94" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>486</v>
       </c>
@@ -4948,7 +4944,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:94" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:94" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>487</v>
       </c>
@@ -5010,10 +5006,10 @@
       <c r="Z5" t="s">
         <v>198</v>
       </c>
-      <c r="AA5" s="11" t="s">
+      <c r="AA5" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="AB5" s="11" t="s">
+      <c r="AB5" s="9" t="s">
         <v>171</v>
       </c>
       <c r="AC5" t="s">
@@ -5052,28 +5048,28 @@
       <c r="AN5" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="AO5" s="9" t="s">
+      <c r="AO5" t="s">
         <v>181</v>
       </c>
-      <c r="AP5" s="9" t="s">
+      <c r="AP5" t="s">
         <v>181</v>
       </c>
-      <c r="AQ5" s="11" t="s">
+      <c r="AQ5" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="AR5" s="11" t="s">
+      <c r="AR5" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="AS5" s="12" t="s">
+      <c r="AS5" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="AT5" s="12" t="s">
+      <c r="AT5" s="9" t="s">
         <v>384</v>
       </c>
       <c r="AU5" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AV5" s="9" t="s">
+      <c r="AV5" t="s">
         <v>218</v>
       </c>
       <c r="AW5" t="s">
@@ -5088,10 +5084,10 @@
       <c r="AZ5" t="s">
         <v>385</v>
       </c>
-      <c r="BA5" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="BB5" s="10" t="s">
+      <c r="BA5" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB5" s="8" t="s">
         <v>154</v>
       </c>
       <c r="BC5" s="5" t="s">
@@ -5100,7 +5096,7 @@
       <c r="BD5" t="s">
         <v>387</v>
       </c>
-      <c r="BE5" s="9" t="s">
+      <c r="BE5" t="s">
         <v>388</v>
       </c>
       <c r="BF5" t="s">
@@ -5139,7 +5135,7 @@
       <c r="CO5" s="1"/>
       <c r="CP5" s="1"/>
     </row>
-    <row r="6" spans="1:94" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:94" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>488</v>
       </c>
@@ -5243,28 +5239,28 @@
       <c r="AN6" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="AO6" s="9" t="s">
+      <c r="AO6" t="s">
         <v>181</v>
       </c>
-      <c r="AP6" s="9" t="s">
+      <c r="AP6" t="s">
         <v>181</v>
       </c>
-      <c r="AQ6" s="11" t="s">
+      <c r="AQ6" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="AR6" s="11" t="s">
+      <c r="AR6" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="AS6" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AT6" s="10" t="s">
+      <c r="AS6" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT6" s="8" t="s">
         <v>154</v>
       </c>
       <c r="AU6" t="s">
         <v>396</v>
       </c>
-      <c r="AV6" s="9" t="s">
+      <c r="AV6" t="s">
         <v>219</v>
       </c>
       <c r="AW6" t="s">
@@ -5279,10 +5275,10 @@
       <c r="AZ6" t="s">
         <v>385</v>
       </c>
-      <c r="BA6" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="BB6" s="10" t="s">
+      <c r="BA6" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB6" s="8" t="s">
         <v>154</v>
       </c>
       <c r="BC6" s="5" t="s">
@@ -5291,7 +5287,7 @@
       <c r="BD6" t="s">
         <v>387</v>
       </c>
-      <c r="BE6" s="9" t="s">
+      <c r="BE6" t="s">
         <v>388</v>
       </c>
       <c r="BF6" t="s">
@@ -5328,7 +5324,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:94" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:94" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>489</v>
       </c>
@@ -5384,28 +5380,28 @@
       <c r="X7" t="s">
         <v>157</v>
       </c>
-      <c r="Y7" s="11" t="s">
+      <c r="Y7" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="Z7" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="AA7" s="11" t="s">
+      <c r="AA7" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AB7" s="11" t="s">
+      <c r="AB7" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AC7" s="11" t="s">
+      <c r="AC7" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AD7" s="11" t="s">
+      <c r="AD7" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AE7" s="11" t="s">
+      <c r="AE7" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="AF7" s="11" t="s">
+      <c r="AF7" s="9" t="s">
         <v>178</v>
       </c>
       <c r="AG7" t="s">
@@ -5444,22 +5440,22 @@
       <c r="AR7" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="AS7" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AT7" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU7" s="12" t="s">
+      <c r="AS7" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT7" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU7" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="AV7" s="12" t="s">
+      <c r="AV7" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="AW7" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AX7" s="10" t="s">
+      <c r="AW7" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AX7" s="8" t="s">
         <v>154</v>
       </c>
       <c r="AY7" s="8" t="s">
@@ -5468,10 +5464,10 @@
       <c r="AZ7" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="BA7" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="BB7" s="10" t="s">
+      <c r="BA7" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB7" s="8" t="s">
         <v>154</v>
       </c>
       <c r="BC7" s="5" t="s">
@@ -5480,7 +5476,7 @@
       <c r="BD7" t="s">
         <v>161</v>
       </c>
-      <c r="BE7" s="9" t="s">
+      <c r="BE7" t="s">
         <v>388</v>
       </c>
       <c r="BF7" t="s">
@@ -5517,7 +5513,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:94" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:94" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>490</v>
       </c>
@@ -5561,10 +5557,10 @@
       <c r="T8" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="U8" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="V8" s="11" t="s">
+      <c r="V8" s="9" t="s">
         <v>156</v>
       </c>
       <c r="W8" t="s">
@@ -5579,10 +5575,10 @@
       <c r="Z8" t="s">
         <v>231</v>
       </c>
-      <c r="AA8" s="11" t="s">
+      <c r="AA8" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="AB8" s="11" t="s">
+      <c r="AB8" s="9" t="s">
         <v>233</v>
       </c>
       <c r="AC8" t="s">
@@ -5621,10 +5617,10 @@
       <c r="AN8" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="AO8" s="9" t="s">
+      <c r="AO8" t="s">
         <v>181</v>
       </c>
-      <c r="AP8" s="9" t="s">
+      <c r="AP8" t="s">
         <v>181</v>
       </c>
       <c r="AQ8" s="7" t="s">
@@ -5633,22 +5629,22 @@
       <c r="AR8" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="AS8" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AT8" s="10" t="s">
+      <c r="AS8" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT8" s="8" t="s">
         <v>154</v>
       </c>
       <c r="AU8" t="s">
         <v>234</v>
       </c>
-      <c r="AV8" s="9" t="s">
+      <c r="AV8" t="s">
         <v>235</v>
       </c>
-      <c r="AW8" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AX8" s="10" t="s">
+      <c r="AW8" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AX8" s="8" t="s">
         <v>154</v>
       </c>
       <c r="AY8" s="8" t="s">
@@ -5657,10 +5653,10 @@
       <c r="AZ8" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="BA8" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="BB8" s="10" t="s">
+      <c r="BA8" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB8" s="8" t="s">
         <v>154</v>
       </c>
       <c r="BC8" s="5" t="s">
@@ -5669,7 +5665,7 @@
       <c r="BD8" t="s">
         <v>387</v>
       </c>
-      <c r="BE8" s="9" t="s">
+      <c r="BE8" t="s">
         <v>236</v>
       </c>
       <c r="BF8" t="s">
@@ -5678,7 +5674,7 @@
       <c r="BG8" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="BH8" s="11" t="s">
+      <c r="BH8" s="9" t="s">
         <v>404</v>
       </c>
       <c r="BO8" t="s">
@@ -5706,7 +5702,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:94" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:94" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>491</v>
       </c>
@@ -5750,10 +5746,10 @@
       <c r="T9" t="s">
         <v>405</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="U9" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="V9" s="9" t="s">
         <v>408</v>
       </c>
       <c r="W9" t="s">
@@ -5792,22 +5788,22 @@
       <c r="AH9" t="s">
         <v>175</v>
       </c>
-      <c r="AI9" s="11" t="s">
+      <c r="AI9" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="AJ9" s="11" t="s">
+      <c r="AJ9" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="AK9" s="11" t="s">
+      <c r="AK9" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="AL9" s="11" t="s">
+      <c r="AL9" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="AM9" s="11" t="s">
+      <c r="AM9" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="AN9" s="11" t="s">
+      <c r="AN9" s="9" t="s">
         <v>180</v>
       </c>
       <c r="AO9" s="5" t="s">
@@ -5816,22 +5812,22 @@
       <c r="AP9" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="AQ9" s="11" t="s">
+      <c r="AQ9" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="AR9" s="11" t="s">
+      <c r="AR9" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="AS9" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AT9" s="10" t="s">
+      <c r="AS9" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT9" s="8" t="s">
         <v>154</v>
       </c>
       <c r="AU9" t="s">
         <v>251</v>
       </c>
-      <c r="AV9" s="9" t="s">
+      <c r="AV9" t="s">
         <v>252</v>
       </c>
       <c r="AW9" t="s">
@@ -5846,10 +5842,10 @@
       <c r="AZ9" t="s">
         <v>250</v>
       </c>
-      <c r="BA9" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="BB9" s="10" t="s">
+      <c r="BA9" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB9" s="8" t="s">
         <v>154</v>
       </c>
       <c r="BC9" s="5" t="s">
@@ -5858,16 +5854,16 @@
       <c r="BD9" t="s">
         <v>424</v>
       </c>
-      <c r="BE9" s="9" t="s">
+      <c r="BE9" t="s">
         <v>246</v>
       </c>
       <c r="BF9" t="s">
         <v>247</v>
       </c>
-      <c r="BG9" s="11" t="s">
+      <c r="BG9" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="BH9" s="11" t="s">
+      <c r="BH9" s="9" t="s">
         <v>411</v>
       </c>
       <c r="BO9" t="s">
@@ -5895,7 +5891,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:94" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:94" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>492</v>
       </c>
@@ -5957,10 +5953,10 @@
       <c r="Z10" t="s">
         <v>198</v>
       </c>
-      <c r="AA10" s="11" t="s">
+      <c r="AA10" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AB10" s="11" t="s">
+      <c r="AB10" s="9" t="s">
         <v>224</v>
       </c>
       <c r="AC10" t="s">
@@ -6005,22 +6001,22 @@
       <c r="AP10" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="AQ10" s="11" t="s">
+      <c r="AQ10" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="AR10" s="11" t="s">
+      <c r="AR10" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="AS10" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AT10" s="10" t="s">
+      <c r="AS10" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT10" s="8" t="s">
         <v>154</v>
       </c>
       <c r="AU10" t="s">
         <v>259</v>
       </c>
-      <c r="AV10" s="9" t="s">
+      <c r="AV10" t="s">
         <v>260</v>
       </c>
       <c r="AW10" t="s">
@@ -6035,10 +6031,10 @@
       <c r="AZ10" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="BA10" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="BB10" s="10" t="s">
+      <c r="BA10" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB10" s="8" t="s">
         <v>154</v>
       </c>
       <c r="BC10" s="5" t="s">
@@ -6047,7 +6043,7 @@
       <c r="BD10" t="s">
         <v>161</v>
       </c>
-      <c r="BE10" s="9" t="s">
+      <c r="BE10" t="s">
         <v>416</v>
       </c>
       <c r="BF10" t="s">
@@ -6084,7 +6080,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:94" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:94" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>493</v>
       </c>
@@ -6194,22 +6190,22 @@
       <c r="AP11" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="AQ11" s="11" t="s">
+      <c r="AQ11" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="AR11" s="11" t="s">
+      <c r="AR11" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="AS11" s="12" t="s">
+      <c r="AS11" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="AT11" s="12" t="s">
+      <c r="AT11" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="AU11" s="12" t="s">
+      <c r="AU11" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="AV11" s="12" t="s">
+      <c r="AV11" s="9" t="s">
         <v>421</v>
       </c>
       <c r="AW11" t="s">
@@ -6218,16 +6214,16 @@
       <c r="AX11" t="s">
         <v>423</v>
       </c>
-      <c r="AY11" s="11" t="s">
+      <c r="AY11" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="AZ11" s="11" t="s">
+      <c r="AZ11" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="BA11" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="BB11" s="10" t="s">
+      <c r="BA11" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB11" s="8" t="s">
         <v>154</v>
       </c>
       <c r="BC11" s="5" t="s">
@@ -6273,7 +6269,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:94" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:94" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>494</v>
       </c>
@@ -6359,22 +6355,22 @@
       <c r="AH12" t="s">
         <v>175</v>
       </c>
-      <c r="AI12" s="11" t="s">
+      <c r="AI12" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="AJ12" s="11" t="s">
+      <c r="AJ12" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="AK12" s="11" t="s">
+      <c r="AK12" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="AL12" s="11" t="s">
+      <c r="AL12" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="AM12" s="11" t="s">
+      <c r="AM12" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="AN12" s="11" t="s">
+      <c r="AN12" s="9" t="s">
         <v>180</v>
       </c>
       <c r="AO12" s="5" t="s">
@@ -6383,22 +6379,22 @@
       <c r="AP12" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="AQ12" s="11" t="s">
+      <c r="AQ12" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="AR12" s="11" t="s">
+      <c r="AR12" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="AS12" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AT12" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU12" s="14" t="s">
+      <c r="AS12" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT12" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU12" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="AV12" s="14" t="s">
+      <c r="AV12" s="11" t="s">
         <v>279</v>
       </c>
       <c r="AW12" t="s">
@@ -6407,16 +6403,16 @@
       <c r="AX12" t="s">
         <v>445</v>
       </c>
-      <c r="AY12" s="11" t="s">
+      <c r="AY12" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="AZ12" s="11" t="s">
+      <c r="AZ12" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="BA12" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="BB12" s="10" t="s">
+      <c r="BA12" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB12" s="8" t="s">
         <v>154</v>
       </c>
       <c r="BC12" s="5" t="s">
@@ -6425,16 +6421,16 @@
       <c r="BD12" t="s">
         <v>429</v>
       </c>
-      <c r="BE12" s="9" t="s">
+      <c r="BE12" t="s">
         <v>446</v>
       </c>
       <c r="BF12" t="s">
         <v>447</v>
       </c>
-      <c r="BG12" s="11" t="s">
+      <c r="BG12" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="BH12" s="13" t="s">
+      <c r="BH12" s="10" t="s">
         <v>245</v>
       </c>
       <c r="BO12" t="s">
@@ -6462,7 +6458,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:94" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:94" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>495</v>
       </c>
@@ -6524,16 +6520,16 @@
       <c r="Z13" t="s">
         <v>198</v>
       </c>
-      <c r="AA13" s="11" t="s">
+      <c r="AA13" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="AB13" s="11" t="s">
+      <c r="AB13" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="AC13" s="11" t="s">
+      <c r="AC13" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="AD13" s="11" t="s">
+      <c r="AD13" s="9" t="s">
         <v>452</v>
       </c>
       <c r="AE13" t="s">
@@ -6572,28 +6568,28 @@
       <c r="AP13" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="AQ13" s="11" t="s">
+      <c r="AQ13" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="AR13" s="11" t="s">
+      <c r="AR13" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="AS13" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AT13" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU13" s="12" t="s">
+      <c r="AS13" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT13" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU13" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="AV13" s="12" t="s">
+      <c r="AV13" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="AW13" s="12" t="s">
+      <c r="AW13" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="AX13" s="12" t="s">
+      <c r="AX13" s="9" t="s">
         <v>284</v>
       </c>
       <c r="AY13" t="s">
@@ -6602,10 +6598,10 @@
       <c r="AZ13" t="s">
         <v>453</v>
       </c>
-      <c r="BA13" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="BB13" s="10" t="s">
+      <c r="BA13" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB13" s="8" t="s">
         <v>154</v>
       </c>
       <c r="BC13" s="5" t="s">
@@ -6614,7 +6610,7 @@
       <c r="BD13" t="s">
         <v>161</v>
       </c>
-      <c r="BE13" s="9" t="s">
+      <c r="BE13" t="s">
         <v>454</v>
       </c>
       <c r="BF13" t="s">
@@ -6651,7 +6647,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:94" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:94" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>496</v>
       </c>
@@ -6707,10 +6703,10 @@
       <c r="X14" t="s">
         <v>157</v>
       </c>
-      <c r="Y14" s="11" t="s">
+      <c r="Y14" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="Z14" s="11" t="s">
+      <c r="Z14" s="9" t="s">
         <v>171</v>
       </c>
       <c r="AA14" s="8" t="s">
@@ -6719,22 +6715,22 @@
       <c r="AB14" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="AC14" s="11" t="s">
+      <c r="AC14" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="AD14" s="11" t="s">
+      <c r="AD14" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="AE14" s="11" t="s">
+      <c r="AE14" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="AF14" s="11" t="s">
+      <c r="AF14" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="AG14" s="11" t="s">
+      <c r="AG14" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="AH14" s="11" t="s">
+      <c r="AH14" s="9" t="s">
         <v>175</v>
       </c>
       <c r="AI14" s="8" t="s">
@@ -6755,22 +6751,22 @@
       <c r="AN14" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="AO14" s="16" t="s">
+      <c r="AO14" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="AP14" s="16" t="s">
+      <c r="AP14" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="AQ14" s="11" t="s">
+      <c r="AQ14" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="AR14" s="11" t="s">
+      <c r="AR14" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="AS14" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AT14" s="10" t="s">
+      <c r="AS14" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT14" s="8" t="s">
         <v>154</v>
       </c>
       <c r="AU14" t="s">
@@ -6791,10 +6787,10 @@
       <c r="AZ14" t="s">
         <v>154</v>
       </c>
-      <c r="BA14" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="BB14" s="10" t="s">
+      <c r="BA14" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB14" s="8" t="s">
         <v>154</v>
       </c>
       <c r="BC14" s="5" t="s">
@@ -6803,7 +6799,7 @@
       <c r="BD14" t="s">
         <v>161</v>
       </c>
-      <c r="BE14" s="9" t="s">
+      <c r="BE14" t="s">
         <v>458</v>
       </c>
       <c r="BF14" t="s">
@@ -6812,7 +6808,7 @@
       <c r="BG14" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="BH14" s="15" t="s">
+      <c r="BH14" s="12" t="s">
         <v>295</v>
       </c>
       <c r="BO14" t="s">
@@ -6840,7 +6836,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:94" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:94" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>497</v>
       </c>
@@ -6950,22 +6946,22 @@
       <c r="AP15" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="AQ15" s="11" t="s">
+      <c r="AQ15" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="AR15" s="11" t="s">
+      <c r="AR15" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="AS15" s="12" t="s">
+      <c r="AS15" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="AT15" s="12" t="s">
+      <c r="AT15" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="AU15" s="12" t="s">
+      <c r="AU15" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="AV15" s="12" t="s">
+      <c r="AV15" s="9" t="s">
         <v>307</v>
       </c>
       <c r="AW15" t="s">
@@ -6980,10 +6976,10 @@
       <c r="AZ15" t="s">
         <v>305</v>
       </c>
-      <c r="BA15" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="BB15" s="10" t="s">
+      <c r="BA15" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB15" s="8" t="s">
         <v>154</v>
       </c>
       <c r="BC15" s="5" t="s">
@@ -6992,7 +6988,7 @@
       <c r="BD15" t="s">
         <v>431</v>
       </c>
-      <c r="BE15" s="9" t="s">
+      <c r="BE15" t="s">
         <v>466</v>
       </c>
       <c r="BF15" t="s">
@@ -7029,7 +7025,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:94" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:94" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>498</v>
       </c>
@@ -7091,10 +7087,10 @@
       <c r="Z16" t="s">
         <v>198</v>
       </c>
-      <c r="AA16" s="11" t="s">
+      <c r="AA16" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="AB16" s="11" t="s">
+      <c r="AB16" s="9" t="s">
         <v>282</v>
       </c>
       <c r="AC16" t="s">
@@ -7115,22 +7111,22 @@
       <c r="AH16" t="s">
         <v>175</v>
       </c>
-      <c r="AI16" s="11" t="s">
+      <c r="AI16" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="AJ16" s="11" t="s">
+      <c r="AJ16" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="AK16" s="11" t="s">
+      <c r="AK16" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="AL16" s="11" t="s">
+      <c r="AL16" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="AM16" s="11" t="s">
+      <c r="AM16" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="AN16" s="11" t="s">
+      <c r="AN16" s="9" t="s">
         <v>180</v>
       </c>
       <c r="AO16" s="5" t="s">
@@ -7145,22 +7141,22 @@
       <c r="AR16" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="AS16" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AT16" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU16" s="12" t="s">
+      <c r="AS16" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT16" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU16" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="AV16" s="12" t="s">
+      <c r="AV16" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="AW16" s="12" t="s">
+      <c r="AW16" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="AX16" s="12" t="s">
+      <c r="AX16" s="9" t="s">
         <v>311</v>
       </c>
       <c r="AY16" t="s">
@@ -7169,10 +7165,10 @@
       <c r="AZ16" t="s">
         <v>216</v>
       </c>
-      <c r="BA16" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="BB16" s="10" t="s">
+      <c r="BA16" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB16" s="8" t="s">
         <v>154</v>
       </c>
       <c r="BC16" s="5" t="s">
@@ -7181,7 +7177,7 @@
       <c r="BD16" t="s">
         <v>161</v>
       </c>
-      <c r="BE16" s="9" t="s">
+      <c r="BE16" t="s">
         <v>312</v>
       </c>
       <c r="BF16" t="s">
@@ -7218,7 +7214,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="2:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:80" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>499</v>
       </c>
@@ -7328,22 +7324,22 @@
       <c r="AP17" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AQ17" s="11" t="s">
+      <c r="AQ17" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="AR17" s="11" t="s">
+      <c r="AR17" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="AS17" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AT17" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU17" s="12" t="s">
+      <c r="AS17" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT17" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU17" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="AV17" s="12" t="s">
+      <c r="AV17" s="9" t="s">
         <v>342</v>
       </c>
       <c r="AW17" t="s">
@@ -7358,7 +7354,7 @@
       <c r="AZ17" t="s">
         <v>321</v>
       </c>
-      <c r="BA17" s="12" t="s">
+      <c r="BA17" s="9" t="s">
         <v>319</v>
       </c>
       <c r="BB17" t="s">
@@ -7370,7 +7366,7 @@
       <c r="BD17" t="s">
         <v>433</v>
       </c>
-      <c r="BE17" s="9" t="s">
+      <c r="BE17" t="s">
         <v>312</v>
       </c>
       <c r="BF17" t="s">
@@ -7407,7 +7403,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="2:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:80" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>500</v>
       </c>
@@ -7517,40 +7513,40 @@
       <c r="AP18" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AQ18" s="11" t="s">
+      <c r="AQ18" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="AR18" s="11" t="s">
+      <c r="AR18" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="AS18" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AT18" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU18" s="12" t="s">
+      <c r="AS18" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT18" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU18" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="AV18" s="12" t="s">
+      <c r="AV18" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="AW18" s="12" t="s">
+      <c r="AW18" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="AX18" s="12" t="s">
+      <c r="AX18" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="AY18" s="12" t="s">
+      <c r="AY18" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="AZ18" s="12" t="s">
+      <c r="AZ18" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="BA18" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="BB18" s="10" t="s">
+      <c r="BA18" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB18" s="8" t="s">
         <v>154</v>
       </c>
       <c r="BC18" s="5" t="s">
@@ -7559,7 +7555,7 @@
       <c r="BD18" t="s">
         <v>161</v>
       </c>
-      <c r="BE18" s="9" t="s">
+      <c r="BE18" t="s">
         <v>312</v>
       </c>
       <c r="BF18" t="s">
@@ -7596,7 +7592,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="2:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:80" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>501</v>
       </c>
@@ -7658,10 +7654,10 @@
       <c r="Z19" t="s">
         <v>198</v>
       </c>
-      <c r="AA19" s="11" t="s">
+      <c r="AA19" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="AB19" s="11" t="s">
+      <c r="AB19" s="9" t="s">
         <v>282</v>
       </c>
       <c r="AC19" t="s">
@@ -7682,22 +7678,22 @@
       <c r="AH19" t="s">
         <v>175</v>
       </c>
-      <c r="AI19" s="11" t="s">
+      <c r="AI19" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="AJ19" s="11" t="s">
+      <c r="AJ19" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="AK19" s="11" t="s">
+      <c r="AK19" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="AL19" s="11" t="s">
+      <c r="AL19" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="AM19" s="11" t="s">
+      <c r="AM19" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="AN19" s="11" t="s">
+      <c r="AN19" s="9" t="s">
         <v>180</v>
       </c>
       <c r="AO19" s="5" t="s">
@@ -7712,16 +7708,16 @@
       <c r="AR19" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="AS19" s="12" t="s">
+      <c r="AS19" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="AT19" s="12" t="s">
+      <c r="AT19" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="AU19" s="12" t="s">
+      <c r="AU19" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="AV19" s="12" t="s">
+      <c r="AV19" s="9" t="s">
         <v>346</v>
       </c>
       <c r="AW19" t="s">
@@ -7736,10 +7732,10 @@
       <c r="AZ19" t="s">
         <v>338</v>
       </c>
-      <c r="BA19" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="BB19" s="10" t="s">
+      <c r="BA19" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB19" s="8" t="s">
         <v>154</v>
       </c>
       <c r="BC19" s="5" t="s">
@@ -7748,7 +7744,7 @@
       <c r="BD19" t="s">
         <v>161</v>
       </c>
-      <c r="BE19" s="9" t="s">
+      <c r="BE19" t="s">
         <v>478</v>
       </c>
       <c r="BF19" t="s">
@@ -7785,7 +7781,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="2:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:80" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>502</v>
       </c>
@@ -7895,28 +7891,28 @@
       <c r="AP20" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="AQ20" s="11" t="s">
+      <c r="AQ20" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="AR20" s="11" t="s">
+      <c r="AR20" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="AS20" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AT20" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU20" s="12" t="s">
+      <c r="AS20" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT20" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU20" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AV20" s="12" t="s">
+      <c r="AV20" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="AW20" s="12" t="s">
+      <c r="AW20" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="AX20" s="12" t="s">
+      <c r="AX20" s="9" t="s">
         <v>365</v>
       </c>
       <c r="AY20" t="s">
@@ -7925,10 +7921,10 @@
       <c r="AZ20" t="s">
         <v>351</v>
       </c>
-      <c r="BA20" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="BB20" s="10" t="s">
+      <c r="BA20" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB20" s="8" t="s">
         <v>154</v>
       </c>
       <c r="BC20" s="5" t="s">
@@ -7937,7 +7933,7 @@
       <c r="BD20" t="s">
         <v>387</v>
       </c>
-      <c r="BE20" s="9" t="s">
+      <c r="BE20" t="s">
         <v>188</v>
       </c>
       <c r="BF20" t="s">
@@ -7981,12 +7977,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="38100cf0-3862-4f5e-94af-ec17e31f9b9a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="92ee2257-ef7d-4b2b-9cba-e98e4e350c54" xsi:nil="true"/>
+    <SharedWithUsers xmlns="92ee2257-ef7d-4b2b-9cba-e98e4e350c54">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8213,27 +8218,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="38100cf0-3862-4f5e-94af-ec17e31f9b9a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="92ee2257-ef7d-4b2b-9cba-e98e4e350c54" xsi:nil="true"/>
-    <SharedWithUsers xmlns="92ee2257-ef7d-4b2b-9cba-e98e4e350c54">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7084B3EE-4F2B-431A-999E-5DE076E5371E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDF7C446-AC1E-450D-BFFA-6B39FB292973}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38100cf0-3862-4f5e-94af-ec17e31f9b9a"/>
+    <ds:schemaRef ds:uri="92ee2257-ef7d-4b2b-9cba-e98e4e350c54"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8258,12 +8257,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDF7C446-AC1E-450D-BFFA-6B39FB292973}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7084B3EE-4F2B-431A-999E-5DE076E5371E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="38100cf0-3862-4f5e-94af-ec17e31f9b9a"/>
-    <ds:schemaRef ds:uri="92ee2257-ef7d-4b2b-9cba-e98e4e350c54"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>